--- a/ExcelConfig/mapdata.xlsx
+++ b/ExcelConfig/mapdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -124,6 +124,14 @@
     <rPh sb="6" eb="7">
       <t>dian</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +552,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,6 +633,9 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -632,6 +643,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
